--- a/data/long_razon/P23_8-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_8-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-55,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-34,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-77,21; -27,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 193,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 42,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 42,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,79; -7,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 79,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 11,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 98,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 28,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 38,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 10,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 51,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-33,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>103,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-57,52; 4,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-48,62; 31,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 40,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,81; 208,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,61; 7,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 69,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-33,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,5; -13,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 68,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 15,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 45,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,97; -6,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 45,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_8-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_8-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_8-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_8-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.6163269837128461</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5758304302001241</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.09811054747875483</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>-0.0838863593292183</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.0243661439581018</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.02149988649005827</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>-0.3864990720856936</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2553574817668194</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.02214402871199954</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.8155716594544831</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.01857229773546864</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4617167313815515</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.4714756358642884</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2911943828072925</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3910334824136407</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.595131224513877</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.08933343487271241</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3140082531832361</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.3556883929662968</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.950040218288823</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.031344952045872</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.5345784451640415</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.527856772535539</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.5118669680117204</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>-0.09874610478098877</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7341947238344937</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.4452139389667939</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.1364303704279715</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3579047018550894</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.01700477639976037</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>0.01620983893755837</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.01380325982915889</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.347019882657884</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>-0.05941634611497025</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1786284688600648</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.1636890544335089</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.4207439625585356</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.0861458155602715</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3236019796020345</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.2626722929494794</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2402535490442918</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.02175156331588908</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>-0.2647312514299102</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.06633520475972646</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.09622526215504745</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.3184671862571659</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.9077890054413245</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6024806597245596</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>0.3931063663592829</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.311127586838788</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.8096565587054595</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.2016346178548344</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.4586959068853789</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.5021940608071194</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1830280786705188</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1733677282370189</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.137511898556739</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>-0.02742055574401623</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.044016304646355</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.4625842948750442</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>-0.1132379995134292</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.2839775216910035</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.767342326436426</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5263282996270091</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4742778759160917</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3722124728209114</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.3718524054026305</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.3716577636492895</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.007654040236303187</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.3827438195723991</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.04724638297165171</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.3546186170587334</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.2971719191613083</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2411676824439195</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.594620935084267</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.4541295784199642</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.034411848043209</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.056748688455096</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.2086816166926466</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.686560233980947</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.31884030427065</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.2712520254969373</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2401930031016584</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3001381344279351</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>-0.0168736705887878</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2091419265322891</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.2620384495898403</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>-0.1512408263631733</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2246536596798332</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.280329108449702</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.4541219940491692</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.01670922628583211</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.002137739260424602</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>-0.2290234080010392</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.001201514771106698</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.01584995675414023</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>-0.2914588796704717</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.04303734436627685</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.07987682036882864</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.04118928584522074</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6053263149670213</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.7532849144759828</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.2128206973457868</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.4683659162902037</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.5504786570639743</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.01500244239843898</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4257506817881358</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.5149683216701206</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
